--- a/matrix/executed/windows/login/login_username_execute.xlsx
+++ b/matrix/executed/windows/login/login_username_execute.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A77B98C-4871-423F-80B3-4D79A0FD13FF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D141577-4689-46E7-8A6A-D8DA3B39C847}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="30">
   <si>
     <t>Date</t>
   </si>
@@ -322,15 +322,147 @@
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp34.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp35.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp36.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp37.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp38.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp39.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
 <file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp40.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp41.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp42.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp43.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp44.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp45.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp46.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp47.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp48.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp49.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
 <file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp50.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp51.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp52.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp53.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp54.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp55.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp56.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp57.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp58.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp59.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
 <file path=xl/ctrlProps/ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp60.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp61.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp62.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp63.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp64.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp65.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp66.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
@@ -361,7 +493,7 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -371,7 +503,7 @@
                   <a14:compatExt spid="_x0000_s1025"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FFCB734-218F-4441-B58A-39958421D0E1}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -428,7 +560,7 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -438,7 +570,7 @@
                   <a14:compatExt spid="_x0000_s1026"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E03A74CA-4A5D-4BB8-989B-60F9B4F0ED27}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -495,7 +627,7 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -505,7 +637,7 @@
                   <a14:compatExt spid="_x0000_s1027"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21E006B5-8D22-4375-BE5A-D4746CD52575}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -562,7 +694,7 @@
           <xdr:col>5</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -572,7 +704,7 @@
                   <a14:compatExt spid="_x0000_s1028"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2841FE0D-AED2-41EB-B4E0-E5EE9DE891CB}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -629,7 +761,7 @@
           <xdr:col>6</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -639,7 +771,7 @@
                   <a14:compatExt spid="_x0000_s1029"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B987B77E-2FE4-41C9-A1C4-EE4E35A2A9D0}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -696,7 +828,7 @@
           <xdr:col>7</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -706,7 +838,7 @@
                   <a14:compatExt spid="_x0000_s1030"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{383414B6-492E-4789-9274-193CEF182631}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -763,7 +895,7 @@
           <xdr:col>8</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -773,7 +905,7 @@
                   <a14:compatExt spid="_x0000_s1031"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A816E284-B582-444D-A918-F60AB8FBF325}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -830,7 +962,7 @@
           <xdr:col>9</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -840,7 +972,7 @@
                   <a14:compatExt spid="_x0000_s1032"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67E4CE47-1589-4049-A3C3-8929F556A935}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -897,7 +1029,7 @@
           <xdr:col>10</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -907,7 +1039,7 @@
                   <a14:compatExt spid="_x0000_s1033"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E107B3F3-0D56-4AA6-B8FD-B1784C4BA9AA}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -964,7 +1096,7 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -974,7 +1106,7 @@
                   <a14:compatExt spid="_x0000_s1034"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01D90D3F-4030-4098-96A5-10BCD5A77BF0}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1031,7 +1163,7 @@
           <xdr:col>12</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1041,7 +1173,7 @@
                   <a14:compatExt spid="_x0000_s1035"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B331C6D5-2236-4EA0-9DC2-A786FF75EC62}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1098,7 +1230,7 @@
           <xdr:col>13</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1108,7 +1240,7 @@
                   <a14:compatExt spid="_x0000_s1036"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B45DCD10-91C2-46C9-9854-C189C9355F1E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1165,7 +1297,7 @@
           <xdr:col>12</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1175,7 +1307,7 @@
                   <a14:compatExt spid="_x0000_s1037"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{031A3A8D-DDE5-465E-A3CC-60916234D381}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1232,7 +1364,7 @@
           <xdr:col>13</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1242,7 +1374,7 @@
                   <a14:compatExt spid="_x0000_s1038"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDD8B1DB-B46D-4876-8FCB-5AA3C275D4A5}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1299,7 +1431,7 @@
           <xdr:col>14</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1309,7 +1441,7 @@
                   <a14:compatExt spid="_x0000_s1039"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{804EFA3C-BAFC-49B0-BAEA-3B0A36D012F0}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1366,7 +1498,7 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1376,7 +1508,7 @@
                   <a14:compatExt spid="_x0000_s1040"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF7BCFF6-14BE-43D0-9859-51A8A812C6EF}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1433,7 +1565,7 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1443,7 +1575,7 @@
                   <a14:compatExt spid="_x0000_s1041"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB69035A-5D82-465B-9370-3EDC273BF913}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1500,7 +1632,7 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1510,7 +1642,7 @@
                   <a14:compatExt spid="_x0000_s1042"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3CFB32F-EEB1-442B-A6AC-E073294CD163}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1567,7 +1699,7 @@
           <xdr:col>5</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1577,7 +1709,7 @@
                   <a14:compatExt spid="_x0000_s1043"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B178A973-A946-4AF5-A61A-8D08730BF9AC}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1634,7 +1766,7 @@
           <xdr:col>6</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1644,7 +1776,7 @@
                   <a14:compatExt spid="_x0000_s1044"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E56351F5-A582-48CE-85AB-71B8191FC93C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1701,7 +1833,7 @@
           <xdr:col>7</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1711,7 +1843,7 @@
                   <a14:compatExt spid="_x0000_s1045"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2B6C1D3-D9C3-47E8-89EA-164BB7AE4FC9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1768,7 +1900,7 @@
           <xdr:col>8</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1778,7 +1910,7 @@
                   <a14:compatExt spid="_x0000_s1046"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C7F5D40-2F28-45DC-810E-65EC842BB29F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1835,7 +1967,7 @@
           <xdr:col>9</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1845,7 +1977,7 @@
                   <a14:compatExt spid="_x0000_s1047"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF6E3E93-1C04-4D0A-9331-7154009CD207}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1902,7 +2034,7 @@
           <xdr:col>10</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1912,7 +2044,7 @@
                   <a14:compatExt spid="_x0000_s1048"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F2AAB5B-451E-4AD2-B12C-AC220AD5DDE7}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1969,7 +2101,7 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1979,7 +2111,7 @@
                   <a14:compatExt spid="_x0000_s1049"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22BDB4FB-2EB2-4C27-A788-B666FC476C29}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2036,7 +2168,7 @@
           <xdr:col>12</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2046,7 +2178,7 @@
                   <a14:compatExt spid="_x0000_s1050"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6637E00E-F3D9-4431-8DBC-4AEFA5E19DEB}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2103,7 +2235,7 @@
           <xdr:col>13</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2113,7 +2245,7 @@
                   <a14:compatExt spid="_x0000_s1051"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B618E5F-980C-4CFC-8834-A6574EF3EF01}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2170,7 +2302,7 @@
           <xdr:col>12</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2180,7 +2312,7 @@
                   <a14:compatExt spid="_x0000_s1052"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{463083B5-052E-4C2C-B769-7FC74E1D3447}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2237,7 +2369,7 @@
           <xdr:col>13</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2247,7 +2379,7 @@
                   <a14:compatExt spid="_x0000_s1053"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB47FA10-E819-4114-B549-E98B1ED050AC}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2304,7 +2436,7 @@
           <xdr:col>14</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2314,7 +2446,7 @@
                   <a14:compatExt spid="_x0000_s1054"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0918373A-499A-4A4E-B45C-27A4BFF22ED2}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2371,7 +2503,7 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2381,7 +2513,7 @@
                   <a14:compatExt spid="_x0000_s1055"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EC7AAFA-EA4E-4DD3-917D-A6F8D1797589}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2438,7 +2570,7 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2448,7 +2580,7 @@
                   <a14:compatExt spid="_x0000_s1056"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5A8F42C-8FC6-45FA-A8B2-96AB32C7CE41}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2505,7 +2637,7 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2515,7 +2647,7 @@
                   <a14:compatExt spid="_x0000_s1057"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{676E285B-0EE0-41BF-B6B8-42574C0C6AAA}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2577,7 +2709,7 @@
         <xdr:cNvPr id="35" name="Picture 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1C6C094-757A-4E65-B9D6-9CC3A8BD0FF3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2620,6 +2752,2108 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1058" name="Check Box 34" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1058"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{296B0C4A-6FBA-4B70-92AC-7317124C90E4}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1059" name="Check Box 35" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1059"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01E5FF85-3991-450C-BD2D-4E6296CD62C1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1060" name="Check Box 36" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1060"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A44E864-688B-49DC-BD6D-3D1552BB86DE}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1061" name="Check Box 37" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1061"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F382A193-D451-4778-8FAE-AD29A7675C1F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1062" name="Check Box 38" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1062"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17AB83A4-30E7-472D-B961-BC0BD5C8F5E5}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1063" name="Check Box 39" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1063"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62329DD1-5833-4F56-A036-802CCAB14253}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1064" name="Check Box 40" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1064"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59896A69-E1F8-49BC-8CAA-3F6269E6CE22}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1065" name="Check Box 41" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1065"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C5A464E-C9F6-4A42-B9FA-34339E496831}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1066" name="Check Box 42" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1066"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE087CDF-9DC9-48DE-84B2-657968AAB5D4}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1067" name="Check Box 43" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1067"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB3786F9-9902-41BC-A8D5-17B6D37533C3}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1068" name="Check Box 44" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1068"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D87E149-5665-4C66-9582-F6E30C82BB14}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1069" name="Check Box 45" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1069"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBA3992F-D4FF-4732-8E41-A4FEFD8CDB1C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1070" name="Check Box 46" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1070"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EE314E4-800A-4761-A7C7-2663BAEA6C0B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1071" name="Check Box 47" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1071"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{425EFAEB-399E-48EC-AD46-83EDCBE659A0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1072" name="Check Box 48" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1072"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA12980F-41FF-4148-BB76-B5E83ED986CB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1073" name="Check Box 49" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1073"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9379D9DD-C6E9-4EC7-9067-949DF79F23BA}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1074" name="Check Box 50" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1074"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{629371F5-A5C6-47A4-9B17-6913DB22FBDC}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1075" name="Check Box 51" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1075"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FEFA758-05C0-4A9A-A4D7-8AD8521E6BD5}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1076" name="Check Box 52" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1076"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5659722A-8334-47D6-8788-0982E3443478}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1077" name="Check Box 53" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1077"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07BE7A93-9D8C-4E51-9597-5F36C5CBE64F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1078" name="Check Box 54" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1078"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{268AF6EC-FA75-40C8-8142-1888ED6A455D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1079" name="Check Box 55" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1079"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8986E0A6-3BDF-428E-A784-58DA1A964E3E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1080" name="Check Box 56" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1080"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15FEDAF1-D042-4B00-A6C2-F95966BDA785}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1081" name="Check Box 57" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1081"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3943BD86-00EC-444C-9FF6-824CAEC17547}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1082" name="Check Box 58" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1082"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7578AD5-327E-423A-BE5E-F063997E3D90}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1083" name="Check Box 59" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1083"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF8BD92C-409A-4562-BCBD-E1585009C239}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1084" name="Check Box 60" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1084"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DAA0DB1-532B-44A7-B998-7094E5B15679}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1085" name="Check Box 61" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1085"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{778B272F-A2E4-4191-9FA3-FEE946775158}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1086" name="Check Box 62" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1086"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA3B53D4-5011-4F55-8FEC-9C0725EFD884}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1087" name="Check Box 63" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1087"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52C5E53C-F367-474C-8565-AE8635ED09CD}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1088" name="Check Box 64" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1088"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD47D42A-2397-46B4-AAA0-A2766CE6174B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1089" name="Check Box 65" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1089"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4C8A99C-F0D8-4104-8AC9-77152C55B3A2}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1090" name="Check Box 66" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1090"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9F9A071-CF0C-44D0-8746-1810139F8280}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="619125" cy="228600"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="69" name="Picture 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BC9D18A-5F31-4C4C-97C6-0FC4626B5738}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2505075" y="190500"/>
+          <a:ext cx="619125" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2886,10 +5120,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:O6"/>
+  <dimension ref="B1:O14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G20:G21"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3027,6 +5261,141 @@
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
+    </row>
+    <row r="8" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="3">
+        <v>45313</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+    </row>
+    <row r="11" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+    </row>
+    <row r="13" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3761,6 +6130,732 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1058" r:id="rId36" name="Check Box 34">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1059" r:id="rId37" name="Check Box 35">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1060" r:id="rId38" name="Check Box 36">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1061" r:id="rId39" name="Check Box 37">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1062" r:id="rId40" name="Check Box 38">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1063" r:id="rId41" name="Check Box 39">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1064" r:id="rId42" name="Check Box 40">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1065" r:id="rId43" name="Check Box 41">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1066" r:id="rId44" name="Check Box 42">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1067" r:id="rId45" name="Check Box 43">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>11</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>11</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1068" r:id="rId46" name="Check Box 44">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1069" r:id="rId47" name="Check Box 45">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>13</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>13</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1070" r:id="rId48" name="Check Box 46">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1071" r:id="rId49" name="Check Box 47">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>13</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>13</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1072" r:id="rId50" name="Check Box 48">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>14</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>14</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1073" r:id="rId51" name="Check Box 49">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>12</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1074" r:id="rId52" name="Check Box 50">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>12</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1075" r:id="rId53" name="Check Box 51">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>12</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1076" r:id="rId54" name="Check Box 52">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>12</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1077" r:id="rId55" name="Check Box 53">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>12</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1078" r:id="rId56" name="Check Box 54">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>12</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1079" r:id="rId57" name="Check Box 55">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>12</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1080" r:id="rId58" name="Check Box 56">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>12</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1081" r:id="rId59" name="Check Box 57">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>12</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1082" r:id="rId60" name="Check Box 58">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>11</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>11</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>12</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1083" r:id="rId61" name="Check Box 59">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>12</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1084" r:id="rId62" name="Check Box 60">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>13</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>13</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>12</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1085" r:id="rId63" name="Check Box 61">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>12</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1086" r:id="rId64" name="Check Box 62">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>13</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>13</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>12</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1087" r:id="rId65" name="Check Box 63">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>14</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>14</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>12</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1088" r:id="rId66" name="Check Box 64">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>12</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>14</xdr:row>
+                    <xdr:rowOff>47625</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1089" r:id="rId67" name="Check Box 65">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>12</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>14</xdr:row>
+                    <xdr:rowOff>47625</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1090" r:id="rId68" name="Check Box 66">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>12</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>14</xdr:row>
+                    <xdr:rowOff>47625</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
       </controls>
     </mc:Choice>
   </mc:AlternateContent>
